--- a/JP/2b_後半フィールドデザインと演出表現.xlsx
+++ b/JP/2b_後半フィールドデザインと演出表現.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiera\JP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF6470-9BDD-4D3E-AA71-98317732A296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811B2C15-99B0-4F48-BCE7-C879283A95B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="後半フィールドデザイン" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ハーメルン</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,26 @@
   </si>
   <si>
     <t>色や形の変化も必要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プラットフォーム上から外を見ると大きな遊園地施設のシルエットが見える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プラットフォームは半径20mの浮遊プラットフォーム（煉獄3層みたいな）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戦闘プラットフォーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プラットフォーム自体が大きな遊園地の上に飛んでるみたいな感じ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -172,6 +192,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -187,6 +208,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8BB685-0D65-D342-3F3E-7F1A8A060D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1470660" y="660688"/>
+          <a:ext cx="4686300" cy="2638772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>34597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BB01EF-0879-2121-B9A2-19B91D43CA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1318260" y="4914900"/>
+          <a:ext cx="4404360" cy="2937817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>168683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E83FB2-D4BD-43F6-1E5B-1B6965B50149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057900" y="4922521"/>
+          <a:ext cx="4335780" cy="2889022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,14 +661,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B112B2-5FDD-4E45-ADD3-3744347550C2}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -467,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
